--- a/element_info_data/element_infos_data.xlsx
+++ b/element_info_data/element_infos_data.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="19770" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="login_page" sheetId="1" r:id="rId1"/>
+    <sheet name="organization_page" sheetId="2" r:id="rId2"/>
+    <sheet name="authority_page" sheetId="3" r:id="rId3"/>
+    <sheet name="company_page" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
   <si>
     <t>元素变量名</t>
   </si>
@@ -31,6 +34,9 @@
     <t>超时时间</t>
   </si>
   <si>
+    <t>username_inputbox</t>
+  </si>
+  <si>
     <t>用户名输入框</t>
   </si>
   <si>
@@ -61,39 +67,598 @@
     <t>submit</t>
   </si>
   <si>
-    <t>username_inputbox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>organization_link</t>
+  </si>
+  <si>
+    <t>一级菜单-组织链接</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>//li[@data-id="company"]</t>
+  </si>
+  <si>
+    <t>user_link</t>
+  </si>
+  <si>
+    <t>二级菜单栏-用户链接</t>
+  </si>
+  <si>
+    <t>//li[@data-id="browseUser"]</t>
+  </si>
+  <si>
+    <t>department_link</t>
+  </si>
+  <si>
+    <t>二级菜单栏-部门链接</t>
+  </si>
+  <si>
+    <t>//li[@data-id="dept"]</t>
+  </si>
+  <si>
+    <t>authority_link</t>
+  </si>
+  <si>
+    <t>二级菜单栏-权限链接</t>
+  </si>
+  <si>
+    <t>//li[@data-id="browseGroup"]</t>
+  </si>
+  <si>
+    <t>dynamic_link</t>
+  </si>
+  <si>
+    <t>二级菜单栏-动态链接</t>
+  </si>
+  <si>
+    <t>//li[@data-id="dynamic"]</t>
+  </si>
+  <si>
+    <t>company_link</t>
+  </si>
+  <si>
+    <t>二级菜单栏-公司链接</t>
+  </si>
+  <si>
+    <t>//li[@data-id="view"]</t>
+  </si>
+  <si>
+    <t>addUser_button</t>
+  </si>
+  <si>
+    <t>添加用户按钮</t>
+  </si>
+  <si>
+    <t>//a[@href="/zentao4/www/user-create-0.html"]</t>
+  </si>
+  <si>
+    <t>batchAddUser_button</t>
+  </si>
+  <si>
+    <t>批量添加用户按钮</t>
+  </si>
+  <si>
+    <t>//a[@href="/zentao4/www/user-batchCreate-0.html"]</t>
+  </si>
+  <si>
+    <t>belongToDepartment_select</t>
+  </si>
+  <si>
+    <t>所属部门选项</t>
+  </si>
+  <si>
+    <t>dept_chosen</t>
+  </si>
+  <si>
+    <t>belongToDepartment_value</t>
+  </si>
+  <si>
+    <t>所属部门选项下拉值</t>
+  </si>
+  <si>
+    <t>//div[@id="dept_chosen"]/div/ul/li[@title="/测试部"]</t>
+  </si>
+  <si>
+    <t>username_input</t>
+  </si>
+  <si>
+    <t>password_input</t>
+  </si>
+  <si>
+    <t>password1</t>
+  </si>
+  <si>
+    <t>confirmPassword_input</t>
+  </si>
+  <si>
+    <t>确认密码输入框</t>
+  </si>
+  <si>
+    <t>password2</t>
+  </si>
+  <si>
+    <t>realname_input</t>
+  </si>
+  <si>
+    <t>真实姓名输入框</t>
+  </si>
+  <si>
+    <t>realname</t>
+  </si>
+  <si>
+    <t>position_input</t>
+  </si>
+  <si>
+    <t>职位</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>verifyPassword_input</t>
+  </si>
+  <si>
+    <t>登录密码验证</t>
+  </si>
+  <si>
+    <t>verifyPassword</t>
+  </si>
+  <si>
+    <t>save_user_button</t>
+  </si>
+  <si>
+    <t>保存用户按钮</t>
+  </si>
+  <si>
+    <t>edit_user_button</t>
+  </si>
+  <si>
+    <t>编辑用户按钮</t>
+  </si>
+  <si>
+    <t>//a[@href="/zentao4/www/user-edit-2-company.html"]</t>
+  </si>
+  <si>
+    <t>delete_user_button</t>
+  </si>
+  <si>
+    <t>删除用户按钮</t>
+  </si>
+  <si>
+    <t>//a[@href="/zentao4/www/user-delete-2.html"]</t>
+  </si>
+  <si>
+    <t>iframe</t>
+  </si>
+  <si>
+    <t>iframe-triggerModal</t>
+  </si>
+  <si>
+    <t>addGroup_button</t>
+  </si>
+  <si>
+    <t>新增分组按钮</t>
+  </si>
+  <si>
+    <t>//a[@href="/zentao4/www/group-create.html?onlybody=yes"]</t>
+  </si>
+  <si>
+    <t>分组弹框的iframe</t>
+  </si>
+  <si>
+    <t>groupName_inputbox</t>
+  </si>
+  <si>
+    <t>分组名称输入框</t>
+  </si>
+  <si>
+    <t>groupDescription_inputbox</t>
+  </si>
+  <si>
+    <t>分组描述输入框</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>save_group_button</t>
+  </si>
+  <si>
+    <t>保存按钮</t>
+  </si>
+  <si>
+    <t>edit_group_button</t>
+  </si>
+  <si>
+    <t>编辑组按钮</t>
+  </si>
+  <si>
+    <t>//td[@title="%s"]/../td[5]/a[4]</t>
+  </si>
+  <si>
+    <t>edit_company_button</t>
+  </si>
+  <si>
+    <t>编辑公司按钮</t>
+  </si>
+  <si>
+    <t>editCompany</t>
+  </si>
+  <si>
+    <t>编辑公司的弹框的iframe</t>
+  </si>
+  <si>
+    <t>companyName_inputbox</t>
+  </si>
+  <si>
+    <t>公司名称输入框</t>
+  </si>
+  <si>
+    <t>save_company_button</t>
+  </si>
+  <si>
+    <t>保存公司修改按钮</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -116,30 +681,335 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -188,7 +1058,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,7 +1093,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -426,19 +1296,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="20.375" customWidth="1"/>
     <col min="2" max="2" width="18.25" customWidth="1"/>
@@ -447,82 +1317,728 @@
     <col min="5" max="5" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="E4" s="9">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4">
       <formula1>"id,name,class,tag,linktext,plinktext,xpath,css"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="29.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="32.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="58.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14 C15 C2:C3 C4:C13 C16:C18 C19:C21">
+      <formula1>"id,name,class,tag,linktext,plinktext,xpath,css"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="59" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3:C7">
+      <formula1>"id,name,class,tag,linktext,plinktext,xpath,css"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="21.375" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5">
+      <formula1>"id,name,class,tag,linktext,plinktext,xpath,css"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/element_info_data/element_infos_data.xlsx
+++ b/element_info_data/element_infos_data.xlsx
@@ -1,14 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_lvhuayan_2\PO_UI_Test_Framework_lvhuayan\element_info_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="8370" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login_page" sheetId="1" r:id="rId1"/>
-    <sheet name="organization_page" sheetId="2" r:id="rId2"/>
+    <sheet name="user_page" sheetId="2" r:id="rId2"/>
     <sheet name="authority_page" sheetId="3" r:id="rId3"/>
     <sheet name="company_page" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="94">
   <si>
     <t>元素变量名</t>
   </si>
@@ -217,101 +222,97 @@
     <t>编辑用户按钮</t>
   </si>
   <si>
-    <t>//a[@href="/zentao4/www/user-edit-2-company.html"]</t>
-  </si>
-  <si>
     <t>delete_user_button</t>
   </si>
   <si>
     <t>删除用户按钮</t>
   </si>
   <si>
+    <t>iframe</t>
+  </si>
+  <si>
+    <t>iframe-triggerModal</t>
+  </si>
+  <si>
+    <t>addGroup_button</t>
+  </si>
+  <si>
+    <t>新增分组按钮</t>
+  </si>
+  <si>
+    <t>//a[@href="/zentao4/www/group-create.html?onlybody=yes"]</t>
+  </si>
+  <si>
+    <t>分组弹框的iframe</t>
+  </si>
+  <si>
+    <t>groupName_inputbox</t>
+  </si>
+  <si>
+    <t>分组名称输入框</t>
+  </si>
+  <si>
+    <t>groupDescription_inputbox</t>
+  </si>
+  <si>
+    <t>分组描述输入框</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>save_group_button</t>
+  </si>
+  <si>
+    <t>保存按钮</t>
+  </si>
+  <si>
+    <t>edit_group_button</t>
+  </si>
+  <si>
+    <t>编辑组按钮</t>
+  </si>
+  <si>
+    <t>//td[@title="%s"]/../td[5]/a[4]</t>
+  </si>
+  <si>
+    <t>edit_company_button</t>
+  </si>
+  <si>
+    <t>编辑公司按钮</t>
+  </si>
+  <si>
+    <t>editCompany</t>
+  </si>
+  <si>
+    <t>编辑公司的弹框的iframe</t>
+  </si>
+  <si>
+    <t>companyName_inputbox</t>
+  </si>
+  <si>
+    <t>公司名称输入框</t>
+  </si>
+  <si>
+    <t>save_company_button</t>
+  </si>
+  <si>
+    <t>保存公司修改按钮</t>
+  </si>
+  <si>
     <t>//a[@href="/zentao4/www/user-delete-2.html"]</t>
-  </si>
-  <si>
-    <t>iframe</t>
-  </si>
-  <si>
-    <t>iframe-triggerModal</t>
-  </si>
-  <si>
-    <t>addGroup_button</t>
-  </si>
-  <si>
-    <t>新增分组按钮</t>
-  </si>
-  <si>
-    <t>//a[@href="/zentao4/www/group-create.html?onlybody=yes"]</t>
-  </si>
-  <si>
-    <t>分组弹框的iframe</t>
-  </si>
-  <si>
-    <t>groupName_inputbox</t>
-  </si>
-  <si>
-    <t>分组名称输入框</t>
-  </si>
-  <si>
-    <t>groupDescription_inputbox</t>
-  </si>
-  <si>
-    <t>分组描述输入框</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>save_group_button</t>
-  </si>
-  <si>
-    <t>保存按钮</t>
-  </si>
-  <si>
-    <t>edit_group_button</t>
-  </si>
-  <si>
-    <t>编辑组按钮</t>
-  </si>
-  <si>
-    <t>//td[@title="%s"]/../td[5]/a[4]</t>
-  </si>
-  <si>
-    <t>edit_company_button</t>
-  </si>
-  <si>
-    <t>编辑公司按钮</t>
-  </si>
-  <si>
-    <t>editCompany</t>
-  </si>
-  <si>
-    <t>编辑公司的弹框的iframe</t>
-  </si>
-  <si>
-    <t>companyName_inputbox</t>
-  </si>
-  <si>
-    <t>公司名称输入框</t>
-  </si>
-  <si>
-    <t>save_company_button</t>
-  </si>
-  <si>
-    <t>保存公司修改按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//td[text()="%s"]/../td[11]/a[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,345 +321,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -681,251 +358,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -955,61 +390,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1296,19 +687,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E4"/>
+      <selection sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.375" customWidth="1"/>
     <col min="2" max="2" width="18.25" customWidth="1"/>
@@ -1317,7 +708,7 @@
     <col min="5" max="5" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1334,7 +725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -1351,7 +742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
@@ -1368,7 +759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
@@ -1386,27 +777,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4">
       <formula1>"id,name,class,tag,linktext,plinktext,xpath,css"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="32.875" style="4" customWidth="1"/>
@@ -1415,7 +805,7 @@
     <col min="5" max="5" width="13.25" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1432,7 +822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -1449,7 +839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -1466,7 +856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1483,7 +873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
@@ -1500,7 +890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>29</v>
       </c>
@@ -1517,7 +907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
@@ -1534,7 +924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>35</v>
       </c>
@@ -1551,7 +941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>38</v>
       </c>
@@ -1568,7 +958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>41</v>
       </c>
@@ -1585,7 +975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>44</v>
       </c>
@@ -1602,7 +992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>47</v>
       </c>
@@ -1619,7 +1009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>48</v>
       </c>
@@ -1636,7 +1026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>50</v>
       </c>
@@ -1653,7 +1043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>53</v>
       </c>
@@ -1670,7 +1060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>56</v>
       </c>
@@ -1687,7 +1077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>59</v>
       </c>
@@ -1704,7 +1094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>62</v>
       </c>
@@ -1721,7 +1111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>64</v>
       </c>
@@ -1732,67 +1122,66 @@
         <v>18</v>
       </c>
       <c r="D19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="7" t="s">
+      <c r="B20" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="E21" s="3">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14 C15 C2:C3 C4:C13 C16:C18 C19:C21">
       <formula1>"id,name,class,tag,linktext,plinktext,xpath,css"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="26.5" customWidth="1"/>
@@ -1800,7 +1189,7 @@
     <col min="4" max="4" width="59" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1817,46 +1206,46 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -1868,29 +1257,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="E5" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -1902,44 +1291,43 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3:C7">
       <formula1>"id,name,class,tag,linktext,plinktext,xpath,css"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="23.75" customWidth="1"/>
@@ -1947,7 +1335,7 @@
     <col min="4" max="4" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1964,46 +1352,46 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E3" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -2015,12 +1403,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -2033,12 +1421,12 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5">
       <formula1>"id,name,class,tag,linktext,plinktext,xpath,css"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/element_info_data/element_infos_data.xlsx
+++ b/element_info_data/element_infos_data.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="19770" windowHeight="8370" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="login_page" sheetId="1" r:id="rId1"/>
-    <sheet name="user_page" sheetId="2" r:id="rId2"/>
-    <sheet name="authority_page" sheetId="3" r:id="rId3"/>
-    <sheet name="company_page" sheetId="4" r:id="rId4"/>
-    <sheet name="organization_page" sheetId="5" r:id="rId5"/>
-    <sheet name="logout_page" sheetId="6" r:id="rId6"/>
+    <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="user" sheetId="2" r:id="rId2"/>
+    <sheet name="authority" sheetId="3" r:id="rId3"/>
+    <sheet name="company" sheetId="4" r:id="rId4"/>
+    <sheet name="organization" sheetId="5" r:id="rId5"/>
+    <sheet name="logout" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114">
   <si>
     <t>元素变量名</t>
   </si>
@@ -45,7 +45,7 @@
     <t>用户名输入框</t>
   </si>
   <si>
-    <t>登录页面</t>
+    <t>login_page</t>
   </si>
   <si>
     <t>id</t>
@@ -81,7 +81,7 @@
     <t>添加用户按钮</t>
   </si>
   <si>
-    <t>用户页面</t>
+    <t>user_page</t>
   </si>
   <si>
     <t>xpath</t>
@@ -105,7 +105,7 @@
     <t>所属部门选项</t>
   </si>
   <si>
-    <t>添加用户页面</t>
+    <t>add_user_page</t>
   </si>
   <si>
     <t>dept_chosen</t>
@@ -201,7 +201,7 @@
     <t>新增分组按钮</t>
   </si>
   <si>
-    <t>权限页面</t>
+    <t>authority_page</t>
   </si>
   <si>
     <t>//a[@href="/zentao4/www/group-create.html?onlybody=yes"]</t>
@@ -216,9 +216,6 @@
     <t>分组名称输入框</t>
   </si>
   <si>
-    <t>新增分组页面</t>
-  </si>
-  <si>
     <t>groupDescription_inputbox</t>
   </si>
   <si>
@@ -267,7 +264,7 @@
     <t>编辑公司按钮</t>
   </si>
   <si>
-    <t>公司页面</t>
+    <t>company_page</t>
   </si>
   <si>
     <t>editCompany</t>
@@ -282,9 +279,6 @@
     <t>公司名称输入框</t>
   </si>
   <si>
-    <t>编辑公司页面</t>
-  </si>
-  <si>
     <t>save_company_button</t>
   </si>
   <si>
@@ -297,7 +291,7 @@
     <t>一级菜单-组织链接</t>
   </si>
   <si>
-    <t>组织页面</t>
+    <t>organization_page</t>
   </si>
   <si>
     <t>//li[@data-id="company"]</t>
@@ -354,7 +348,7 @@
     <t>登录用户名</t>
   </si>
   <si>
-    <t>退出系统</t>
+    <t>logout_page</t>
   </si>
   <si>
     <t>//span[@class="user-name"]</t>
@@ -374,15 +368,30 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -461,32 +470,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,6 +541,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -607,12 +607,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -637,6 +649,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -698,30 +716,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,10 +847,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -865,133 +859,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1373,7 +1367,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1422,7 +1416,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1441,9 +1435,7 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2">
-        <v>5</v>
-      </c>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
@@ -1462,7 +1454,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1483,7 +1475,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C18:C19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1812,7 +1804,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1892,7 +1884,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>9</v>
@@ -1906,19 +1898,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" s="7">
         <v>5</v>
@@ -1926,13 +1918,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="C6" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>9</v>
@@ -1946,10 +1938,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>60</v>
@@ -1958,7 +1950,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7" s="7">
         <v>5</v>
@@ -1966,10 +1958,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>60</v>
@@ -1978,7 +1970,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" s="7">
         <v>5</v>
@@ -1986,10 +1978,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>60</v>
@@ -1998,7 +1990,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" s="7">
         <v>5</v>
@@ -2021,7 +2013,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -2055,19 +2047,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F2" s="7">
         <v>5</v>
@@ -2078,10 +2070,10 @@
         <v>56</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>9</v>
@@ -2095,13 +2087,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>9</v>
@@ -2115,13 +2107,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>9</v>
@@ -2150,7 +2142,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -2183,19 +2175,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F2" s="5">
         <v>5</v>
@@ -2203,19 +2195,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F3" s="5">
         <v>5</v>
@@ -2223,19 +2215,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F4" s="5">
         <v>5</v>
@@ -2243,19 +2235,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F5" s="5">
         <v>5</v>
@@ -2263,19 +2255,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F6" s="5">
         <v>5</v>
@@ -2283,19 +2275,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F7" s="5">
         <v>5</v>
@@ -2318,7 +2310,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -2351,19 +2343,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F2" s="2">
         <v>5</v>
@@ -2371,19 +2363,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F3" s="2">
         <v>5</v>

--- a/element_info_data/element_infos_data.xlsx
+++ b/element_info_data/element_infos_data.xlsx
@@ -4,22 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370" activeTab="5"/>
+    <workbookView windowWidth="19770" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="user" sheetId="2" r:id="rId2"/>
-    <sheet name="authority" sheetId="3" r:id="rId3"/>
-    <sheet name="company" sheetId="4" r:id="rId4"/>
-    <sheet name="organization" sheetId="5" r:id="rId5"/>
-    <sheet name="logout" sheetId="6" r:id="rId6"/>
+    <sheet name="main" sheetId="7" r:id="rId2"/>
+    <sheet name="user" sheetId="2" r:id="rId3"/>
+    <sheet name="authority" sheetId="3" r:id="rId4"/>
+    <sheet name="company" sheetId="4" r:id="rId5"/>
+    <sheet name="organization" sheetId="5" r:id="rId6"/>
+    <sheet name="logout" sheetId="6" r:id="rId7"/>
+    <sheet name="myzone" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128">
   <si>
     <t>元素变量名</t>
   </si>
@@ -75,6 +77,39 @@
     <t>submit</t>
   </si>
   <si>
+    <t>myzone_link</t>
+  </si>
+  <si>
+    <t>我的地盘链接</t>
+  </si>
+  <si>
+    <t>main_page</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>//a[@text='我的地盘']</t>
+  </si>
+  <si>
+    <t>user_menu</t>
+  </si>
+  <si>
+    <t>用户菜单</t>
+  </si>
+  <si>
+    <t>userNav</t>
+  </si>
+  <si>
+    <t>quit_button</t>
+  </si>
+  <si>
+    <t>退出按钮</t>
+  </si>
+  <si>
+    <t>//a[@href='/zentao4/www/user-logout.html']</t>
+  </si>
+  <si>
     <t>addUser_button</t>
   </si>
   <si>
@@ -84,9 +119,6 @@
     <t>user_page</t>
   </si>
   <si>
-    <t>xpath</t>
-  </si>
-  <si>
     <t>//a[@href="/zentao4/www/user-create-0.html"]</t>
   </si>
   <si>
@@ -357,10 +389,22 @@
     <t>logout_button</t>
   </si>
   <si>
-    <t>退出按钮</t>
-  </si>
-  <si>
     <t>//a[contains(@href,"user-logout.html")]</t>
+  </si>
+  <si>
+    <t>firstpage_link</t>
+  </si>
+  <si>
+    <t>首页链接</t>
+  </si>
+  <si>
+    <t>first_page</t>
+  </si>
+  <si>
+    <t>calendar_link</t>
+  </si>
+  <si>
+    <t>日程链接</t>
   </si>
 </sst>
 </file>
@@ -368,15 +412,37 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -386,14 +452,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -419,34 +477,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -462,9 +493,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,19 +546,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -512,7 +563,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,7 +571,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -535,12 +586,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -553,19 +652,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,13 +682,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,55 +724,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,67 +754,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,17 +795,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,20 +828,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,18 +847,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,16 +881,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -859,16 +910,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -877,120 +928,126 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1367,7 +1424,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1380,81 +1437,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2">
-        <v>3</v>
+      <c r="F2" s="4">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="2">
-        <v>4</v>
+      <c r="F4" s="4">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1472,318 +1531,422 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="58.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="29.625" style="3" customWidth="1"/>
-    <col min="2" max="3" width="32.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="58.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="29.625" style="5" customWidth="1"/>
+    <col min="2" max="3" width="32.875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="58.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="A2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="E2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="A3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="E3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="A4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="E4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="D13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="E13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="5">
+      <c r="E15" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="7">
         <v>5</v>
       </c>
     </row>
@@ -1798,7 +1961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F9"/>
@@ -1811,188 +1974,188 @@
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="32.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32.875" style="5" customWidth="1"/>
     <col min="4" max="4" width="10.375" customWidth="1"/>
     <col min="5" max="5" width="59" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="A2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="E2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="A3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="E3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="A4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="A5" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="E5" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="A6" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="7">
+      <c r="E7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="A8" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="E8" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="A9" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="7">
+      <c r="E9" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="9">
         <v>5</v>
       </c>
     </row>
@@ -2007,7 +2170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -2020,108 +2183,108 @@
   <cols>
     <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="32.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32.875" style="5" customWidth="1"/>
     <col min="4" max="4" width="13.125" customWidth="1"/>
     <col min="5" max="5" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="A2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="E2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="A3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="E3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="9">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="A4" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="A5" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="9">
         <v>8</v>
       </c>
     </row>
@@ -2136,7 +2299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F7"/>
@@ -2149,147 +2312,147 @@
   <cols>
     <col min="1" max="1" width="25.25" customWidth="1"/>
     <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="32.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32.875" style="5" customWidth="1"/>
     <col min="5" max="5" width="30.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="A2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="E2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="A3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="E3" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="A4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="E4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="A5" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="E6" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="A7" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="E7" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="7">
         <v>5</v>
       </c>
     </row>
@@ -2304,13 +2467,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -2322,62 +2485,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="E2" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="A3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="E3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="4">
         <v>5</v>
       </c>
     </row>
@@ -2390,4 +2553,90 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="17.8583333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.3166666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.4833333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.325" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5666666666667" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.14166666666667" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/element_info_data/element_infos_data.xlsx
+++ b/element_info_data/element_infos_data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_lvhuayan_2\PO_UI_Test_Framework_lvhuayan\element_info_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="129">
   <si>
     <t>元素变量名</t>
   </si>
@@ -405,19 +410,17 @@
   </si>
   <si>
     <t>日程链接</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,345 +436,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -794,251 +473,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1074,61 +511,17 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1415,19 +808,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.375" customWidth="1"/>
     <col min="2" max="3" width="18.25" customWidth="1"/>
@@ -1436,7 +829,7 @@
     <col min="6" max="6" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1456,7 +849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1467,7 +860,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
@@ -1476,7 +869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1496,7 +889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -1517,27 +910,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4">
       <formula1>"id,name,class,tag,linktext,plinktext,xpath,css"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="20.25" customWidth="1"/>
@@ -1546,7 +938,7 @@
     <col min="5" max="5" width="58.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:6">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1566,7 +958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:6">
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1586,7 +978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:6">
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -1597,7 +989,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
@@ -1606,7 +998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:6">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -1627,21 +1019,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.625" style="5" customWidth="1"/>
     <col min="2" max="3" width="32.875" style="5" customWidth="1"/>
@@ -1650,7 +1041,7 @@
     <col min="6" max="6" width="13.25" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1670,7 +1061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>29</v>
       </c>
@@ -1690,7 +1081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>33</v>
       </c>
@@ -1710,7 +1101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>36</v>
       </c>
@@ -1730,7 +1121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>40</v>
       </c>
@@ -1750,7 +1141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>43</v>
       </c>
@@ -1770,7 +1161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>44</v>
       </c>
@@ -1790,7 +1181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>46</v>
       </c>
@@ -1810,7 +1201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
         <v>49</v>
       </c>
@@ -1830,7 +1221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
         <v>52</v>
       </c>
@@ -1850,7 +1241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
         <v>55</v>
       </c>
@@ -1870,7 +1261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
         <v>58</v>
       </c>
@@ -1890,7 +1281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
         <v>60</v>
       </c>
@@ -1910,7 +1301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
         <v>63</v>
       </c>
@@ -1930,7 +1321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="s">
         <v>66</v>
       </c>
@@ -1951,26 +1342,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8 D9 D2:D7 D10:D12 D13:D15">
       <formula1>"id,name,class,tag,linktext,plinktext,xpath,css"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="26.5" customWidth="1"/>
@@ -1979,7 +1369,7 @@
     <col min="5" max="5" width="59" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1999,7 +1389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>68</v>
       </c>
@@ -2019,7 +1409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>66</v>
       </c>
@@ -2039,7 +1429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>73</v>
       </c>
@@ -2059,7 +1449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>75</v>
       </c>
@@ -2079,7 +1469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>78</v>
       </c>
@@ -2099,7 +1489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>80</v>
       </c>
@@ -2119,7 +1509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>83</v>
       </c>
@@ -2139,7 +1529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>86</v>
       </c>
@@ -2160,26 +1550,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D7 D3:D6 D8:D9">
       <formula1>"id,name,class,tag,linktext,plinktext,xpath,css"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="23.75" customWidth="1"/>
@@ -2188,7 +1577,7 @@
     <col min="5" max="5" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2208,7 +1597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>89</v>
       </c>
@@ -2228,7 +1617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>66</v>
       </c>
@@ -2248,7 +1637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>94</v>
       </c>
@@ -2268,7 +1657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>96</v>
       </c>
@@ -2289,26 +1678,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5">
       <formula1>"id,name,class,tag,linktext,plinktext,xpath,css"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.25" customWidth="1"/>
     <col min="2" max="2" width="21.75" customWidth="1"/>
@@ -2316,7 +1704,7 @@
     <col min="5" max="5" width="30.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2336,7 +1724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>98</v>
       </c>
@@ -2356,7 +1744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>102</v>
       </c>
@@ -2376,7 +1764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>105</v>
       </c>
@@ -2396,7 +1784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>108</v>
       </c>
@@ -2416,7 +1804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>111</v>
       </c>
@@ -2436,7 +1824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>114</v>
       </c>
@@ -2457,26 +1845,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3 D4:D7">
       <formula1>"id,name,class,tag,linktext,plinktext,xpath,css"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="28.875" customWidth="1"/>
     <col min="2" max="2" width="20.75" customWidth="1"/>
@@ -2484,7 +1871,7 @@
     <col min="5" max="5" width="44.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2504,7 +1891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>117</v>
       </c>
@@ -2524,7 +1911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>121</v>
       </c>
@@ -2545,37 +1932,36 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
       <formula1>"id,name,class,tag,linktext,plinktext,xpath,css"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.8583333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.3166666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.4833333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.325" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.14166666666667" style="1"/>
+    <col min="1" max="1" width="17.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2595,7 +1981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>123</v>
       </c>
@@ -2615,7 +2001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>126</v>
       </c>
@@ -2636,7 +2022,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/element_info_data/element_infos_data.xlsx
+++ b/element_info_data/element_infos_data.xlsx
@@ -817,7 +817,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -860,7 +860,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>

--- a/element_info_data/element_infos_data.xlsx
+++ b/element_info_data/element_infos_data.xlsx
@@ -21,12 +21,12 @@
     <sheet name="logout" sheetId="6" r:id="rId7"/>
     <sheet name="myzone" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="130">
   <si>
     <t>元素变量名</t>
   </si>
@@ -414,6 +414,9 @@
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag</t>
   </si>
 </sst>
 </file>
@@ -570,7 +573,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -605,7 +608,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -817,7 +820,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -860,7 +863,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>

--- a/element_info_data/element_infos_data.xlsx
+++ b/element_info_data/element_infos_data.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="129">
   <si>
     <t>元素变量名</t>
   </si>
@@ -414,9 +414,6 @@
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tag</t>
   </si>
 </sst>
 </file>
@@ -820,7 +817,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -863,7 +860,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
